--- a/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
+++ b/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fc\Desktop\강의자료\권진오_부동산 financial modeling_강의자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwchae23\QuantifyPro\workplace\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\강의자료\[강의자료]엑셀로만드는-부동산-financial-modeling-ch01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2569C-152C-42CE-B7FC-A0496AA736BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="함수예시문제" sheetId="1" r:id="rId1"/>
     <sheet name="상승률 예시문제" sheetId="2" r:id="rId2"/>
+    <sheet name="실습0909" sheetId="3" r:id="rId3"/>
+    <sheet name="함수예시문제 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="py">'[1]A&amp;R'!$D$11</definedName>
     <definedName name="start">[2]민감도분석!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
   <si>
     <t>2021년도 값의 합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -337,14 +338,150 @@
   </si>
   <si>
     <t>과세표준 포함여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 임대료 상승률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 임대료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위: 원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>임대면적</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(평)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 평당 임대료</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불리언 값을 통해 1, 0을 반환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; Datedif는 함수 마법사에서 지원하는 게 아니므로 직접 입력해야 함!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더한 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datedif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;나머지 구하는건데 이걸 뭐 어따쓰는거임?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; PV, FV &gt;&gt; CAGR???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대료(월,평)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연간 상승률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 임대료단가 상승률을 특정기간 동안의 월별 현금흐름으로 적용한다면?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="General&quot;년&quot;"/>
     <numFmt numFmtId="177" formatCode="General&quot;기&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\);\-_)"/>
@@ -355,8 +492,9 @@
     <numFmt numFmtId="183" formatCode="#,##0_ &quot;원&quot;"/>
     <numFmt numFmtId="184" formatCode="General&quot;월&quot;"/>
     <numFmt numFmtId="185" formatCode="#,##0_ "/>
+    <numFmt numFmtId="189" formatCode="#,##0_);[Red]\(#,##0\);\-_)\ &quot;평&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +562,31 @@
     <font>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -634,12 +797,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,8 +1013,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -862,6 +1047,156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="15" noThreeD="1" sel="0" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>29643</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="104775"/>
+          <a:ext cx="7649643" cy="2972215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>20712</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>162604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925050" y="3181350"/>
+          <a:ext cx="11907912" cy="4867954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,11 +1567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2080,11 +2415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BE30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2749,4 +3084,1256 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="13.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="72">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="70">
+        <f>C2</f>
+        <v>1000</v>
+      </c>
+      <c r="E2" s="70">
+        <f t="shared" ref="E2:H2" si="0">D2</f>
+        <v>1000</v>
+      </c>
+      <c r="F2" s="70">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G2" s="70">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H2" s="70">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="18">
+        <v>300000</v>
+      </c>
+      <c r="D3" s="70">
+        <f>$C$3*(1+$C$4)^(D6-1)</f>
+        <v>300000</v>
+      </c>
+      <c r="E3" s="70">
+        <f t="shared" ref="E3:H3" si="1">$C$3*(1+$C$4)^(E6-1)</f>
+        <v>309000</v>
+      </c>
+      <c r="F3" s="70">
+        <f t="shared" si="1"/>
+        <v>318270</v>
+      </c>
+      <c r="G3" s="70">
+        <f t="shared" si="1"/>
+        <v>327818.09999999998</v>
+      </c>
+      <c r="H3" s="70">
+        <f t="shared" si="1"/>
+        <v>337652.64299999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="69">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <f>D6+1</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6:H6" si="2">E6+1</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="70">
+        <f>D2*D3</f>
+        <v>300000000</v>
+      </c>
+      <c r="E7" s="70">
+        <f t="shared" ref="E7:H7" si="3">E2*E3</f>
+        <v>309000000</v>
+      </c>
+      <c r="F7" s="70">
+        <f t="shared" si="3"/>
+        <v>318270000</v>
+      </c>
+      <c r="G7" s="70">
+        <f t="shared" si="3"/>
+        <v>327818100</v>
+      </c>
+      <c r="H7" s="70">
+        <f t="shared" si="3"/>
+        <v>337652643</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="20">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="20">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="18">
+        <f>(D2=C2)*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="18">
+        <f>(D2=D3)*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="18">
+        <f>DATEDIF(E15,E14,"d")</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="20">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="20">
+        <f>E22+E23</f>
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="20">
+        <v>45340</v>
+      </c>
+      <c r="E28" s="20">
+        <v>45344</v>
+      </c>
+      <c r="F28" s="18">
+        <f>DATEDIF(D28,E28,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <f>E28-D28</f>
+        <v>4</v>
+      </c>
+      <c r="H28" s="18">
+        <f>G28/30</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="20">
+        <v>45303</v>
+      </c>
+      <c r="E29" s="20">
+        <v>45324</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" ref="F29:F30" si="4">DATEDIF(D29,E29,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" ref="G29:G30" si="5">E29-D29</f>
+        <v>21</v>
+      </c>
+      <c r="H29" s="18">
+        <f>G29/30</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="20">
+        <v>44948</v>
+      </c>
+      <c r="E30" s="20">
+        <v>45344</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
+      <c r="H30" s="18">
+        <f>G30/30</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="18">
+        <v>20</v>
+      </c>
+      <c r="G34" s="18">
+        <v>2</v>
+      </c>
+      <c r="H34" s="18">
+        <f>MOD(F34,G34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <f>E38+E38</f>
+        <v>2</v>
+      </c>
+      <c r="G38" s="18">
+        <f>F38+1</f>
+        <v>3</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" ref="H38:I38" si="6">G38+1</f>
+        <v>4</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="18">
+        <v>24000</v>
+      </c>
+      <c r="E39" s="18">
+        <f>$D$39*(1+$D$38)^(E38-1)</f>
+        <v>24000</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" ref="F39:I39" si="7">$D$39*(1+$D$38)^(F38-1)</f>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="G39" s="18">
+        <f t="shared" si="7"/>
+        <v>24725.399999999994</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="7"/>
+        <v>25096.280999999992</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="7"/>
+        <v>25472.725214999988</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId3" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
+    <col min="13" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="13">
+        <v>44287</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11">
+        <v>44301</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <v>44316</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="11">
+        <v>44287</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="11">
+        <v>44301</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="9">
+        <v>44316</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="12" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="20">
+        <v>44286</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" ref="E13:J13" si="0">EOMONTH(D13,1)</f>
+        <v>44316</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>44408</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>44439</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="20">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="39">
+        <v>24000</v>
+      </c>
+      <c r="F24" s="40">
+        <v>25000</v>
+      </c>
+      <c r="G24" s="41">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="42">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F25" s="43">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G25" s="44">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="47">
+        <v>46000</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="47">
+        <v>920</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="47">
+        <v>800</v>
+      </c>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="47">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="47">
+        <v>31</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="48">
+        <f>SUM(E29:E34)</f>
+        <v>47780</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="37" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1">
+        <v>300</v>
+      </c>
+      <c r="E38" s="49"/>
+    </row>
+    <row r="39" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+    </row>
+    <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="15"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="63"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+    </row>
+    <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="13">
+        <v>44287</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+    </row>
+    <row r="47" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="11">
+        <v>44301</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+    </row>
+    <row r="48" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="11">
+        <v>44316</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="11">
+        <v>44287</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="11">
+        <v>44301</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+    </row>
+    <row r="51" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="9">
+        <v>44316</v>
+      </c>
+      <c r="D51" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+    </row>
+    <row r="53" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44227</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" ref="E54:Q54" si="1">EOMONTH(D54,1)</f>
+        <v>44255</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="1"/>
+        <v>44286</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="1"/>
+        <v>44316</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="1"/>
+        <v>44347</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="1"/>
+        <v>44377</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="1"/>
+        <v>44408</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="1"/>
+        <v>44439</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="1"/>
+        <v>44469</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="1"/>
+        <v>44500</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="1"/>
+        <v>44530</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="1"/>
+        <v>44561</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="1"/>
+        <v>44592</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" si="1"/>
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>2</v>
+      </c>
+      <c r="L55" s="4">
+        <v>2</v>
+      </c>
+      <c r="M55" s="4">
+        <v>2</v>
+      </c>
+      <c r="N55" s="4">
+        <v>2</v>
+      </c>
+      <c r="O55" s="4">
+        <v>2</v>
+      </c>
+      <c r="P55" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" ref="D56:Q56" si="2">YEAR(D54)</f>
+        <v>2021</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="Q56" s="3">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="46">
+        <f>MONTH(D54)</f>
+        <v>1</v>
+      </c>
+      <c r="E57" s="46">
+        <f t="shared" ref="E57:Q57" si="3">MONTH(E54)</f>
+        <v>2</v>
+      </c>
+      <c r="F57" s="46">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G57" s="46">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H57" s="46">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I57" s="46">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J57" s="46">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K57" s="46">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L57" s="46">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M57" s="46">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N57" s="46">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O57" s="46">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P57" s="46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="46">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2">
+        <v>100</v>
+      </c>
+      <c r="F58" s="2">
+        <v>100</v>
+      </c>
+      <c r="G58" s="2">
+        <v>100</v>
+      </c>
+      <c r="H58" s="2">
+        <v>100</v>
+      </c>
+      <c r="I58" s="2">
+        <v>100</v>
+      </c>
+      <c r="J58" s="2">
+        <v>100</v>
+      </c>
+      <c r="K58" s="2">
+        <v>100</v>
+      </c>
+      <c r="L58" s="2">
+        <v>100</v>
+      </c>
+      <c r="M58" s="2">
+        <v>100</v>
+      </c>
+      <c r="N58" s="2">
+        <v>100</v>
+      </c>
+      <c r="O58" s="2">
+        <v>100</v>
+      </c>
+      <c r="P58" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="49"/>
+    </row>
+    <row r="61" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="49"/>
+    </row>
+    <row r="62" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I41:J42"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
+++ b/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
   <si>
     <t>2021년도 값의 합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -476,6 +476,70 @@
     <t>&gt;&gt; 임대료단가 상승률을 특정기간 동안의 월별 현금흐름으로 적용한다면?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>indirect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 참조로 바꾸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indirect(ref_text,[a1])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조스타일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열로 만들어진 참조를 유효한 셀 참조로 바꿔주는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식은 바꾸지 않고, 문자열로 만들어진 '참조'만 변경해서 결과를 가져와야 할 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) vlookup함수 사용 시, 값을 찾는 시트의 이름이 바뀌어야 하면 indirect 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음뵙겠습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; Q17셀에 숫자 14가 입력되어 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 indirect("Q"&amp;Q17)과 indirect("Q14")가 같음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 수식은 건드리지 않고 다른 결과를 참조하도록 하고 싶을 때 사용!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -492,9 +556,9 @@
     <numFmt numFmtId="183" formatCode="#,##0_ &quot;원&quot;"/>
     <numFmt numFmtId="184" formatCode="General&quot;월&quot;"/>
     <numFmt numFmtId="185" formatCode="#,##0_ "/>
-    <numFmt numFmtId="189" formatCode="#,##0_);[Red]\(#,##0\);\-_)\ &quot;평&quot;"/>
+    <numFmt numFmtId="186" formatCode="#,##0_);[Red]\(#,##0\);\-_)\ &quot;평&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,8 +656,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,27 +1104,198 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1995,15 +2262,15 @@
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
       <c r="D42" s="2"/>
       <c r="E42" s="63"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="45" t="s">
@@ -3104,7 +3371,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3112,54 +3379,54 @@
       <c r="B2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>1000</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="69">
         <f>C2</f>
         <v>1000</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="69">
         <f t="shared" ref="E2:H2" si="0">D2</f>
         <v>1000</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="69">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="69">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="69">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="18">
         <v>300000</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <f>$C$3*(1+$C$4)^(D6-1)</f>
         <v>300000</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="69">
         <f t="shared" ref="E3:H3" si="1">$C$3*(1+$C$4)^(E6-1)</f>
         <v>309000</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="69">
         <f t="shared" si="1"/>
         <v>318270</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="69">
         <f t="shared" si="1"/>
         <v>327818.09999999998</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="69">
         <f t="shared" si="1"/>
         <v>337652.64299999998</v>
       </c>
@@ -3168,7 +3435,7 @@
       <c r="B4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="68">
         <v>0.03</v>
       </c>
     </row>
@@ -3197,23 +3464,23 @@
       <c r="B7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <f>D2*D3</f>
         <v>300000000</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="69">
         <f t="shared" ref="E7:H7" si="3">E2*E3</f>
         <v>309000000</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <f t="shared" si="3"/>
         <v>318270000</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="69">
         <f t="shared" si="3"/>
         <v>327818100</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <f t="shared" si="3"/>
         <v>337652643</v>
       </c>
@@ -3372,7 +3639,7 @@
       </c>
     </row>
     <row r="34" spans="3:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="72" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="18" t="s">
@@ -3398,7 +3665,7 @@
       <c r="C38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="73">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E38" s="18">
@@ -3492,841 +3759,907 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q62"/>
+  <dimension ref="B2:R62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
-    <col min="13" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.875" style="76" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="76" customWidth="1"/>
+    <col min="4" max="4" width="10" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10" style="76" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="76" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="76" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="76" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1" style="77" customWidth="1"/>
+    <col min="15" max="16" width="9.875" style="76" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="76" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="76"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+    <row r="2" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="75" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="Q3" s="76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="78" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="13">
+      <c r="Q4" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="79">
         <v>44287</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="80">
         <v>1</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="11">
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="81"/>
+      <c r="Q5" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="83">
         <v>44301</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="84">
         <v>1</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="85"/>
+      <c r="Q6" s="76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="83">
         <v>44316</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="84">
         <v>1</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="54"/>
-    </row>
-    <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="11">
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="85"/>
+      <c r="Q7" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="83">
         <v>44287</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="84">
         <v>0</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="54"/>
-    </row>
-    <row r="9" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11">
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="85"/>
+      <c r="Q8" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="83">
         <v>44301</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="84">
         <v>0</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="54"/>
-    </row>
-    <row r="10" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="9">
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="85"/>
+    </row>
+    <row r="10" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="87">
         <v>44316</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="88">
         <v>-1</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="55"/>
-    </row>
-    <row r="12" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="89"/>
+    </row>
+    <row r="12" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="75" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="91">
         <v>44286</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="91">
         <f t="shared" ref="E13:J13" si="0">EOMONTH(D13,1)</f>
         <v>44316</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="91">
         <f t="shared" si="0"/>
         <v>44347</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="91">
         <f t="shared" si="0"/>
         <v>44377</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="91">
         <f t="shared" si="0"/>
         <v>44408</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="91">
         <f t="shared" si="0"/>
         <v>44439</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="91">
         <f t="shared" si="0"/>
         <v>44469</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="91">
         <v>44347</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="19" t="s">
+      <c r="Q14" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="Q15" s="76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="75" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45" t="s">
+      <c r="P17" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>15</v>
+      </c>
+      <c r="R17" s="76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="R18" s="76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="95">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="14" t="s">
+    <row r="22" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="98" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="12" t="s">
+      <c r="Q22" s="76" t="str">
+        <f>Q14</f>
+        <v>안녕하세요</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="36">
+      <c r="D23" s="99"/>
+      <c r="E23" s="100">
         <v>0.1</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="101">
         <v>0.2</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="102">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
+      <c r="Q23" s="76" t="str">
+        <f ca="1">INDIRECT("Q"&amp;Q17)</f>
+        <v>처음뵙겠습니다</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="39">
+      <c r="D24" s="103"/>
+      <c r="E24" s="104">
         <v>24000</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="105">
         <v>25000</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="106">
         <v>26000</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="42">
+      <c r="D25" s="107"/>
+      <c r="E25" s="108">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="109">
         <v>4.7E-2</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="110">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+    <row r="27" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="111"/>
+      <c r="E28" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
+      <c r="G28" s="111"/>
+    </row>
+    <row r="29" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="112">
         <v>46000</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="113">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="112">
         <v>920</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="113">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+    <row r="31" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="112">
         <v>800</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="113">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="49" t="s">
+    <row r="32" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="50" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="51"/>
-      <c r="F32" s="24">
+      <c r="F32" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="112">
         <v>29</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="112">
         <v>31</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="48">
+      <c r="D35" s="114"/>
+      <c r="E35" s="115">
         <f>SUM(E29:E34)</f>
         <v>47780</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="114"/>
     </row>
     <row r="37" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="75" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="76">
         <v>300</v>
       </c>
-      <c r="E38" s="49"/>
+      <c r="E38" s="50"/>
     </row>
     <row r="39" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="76">
         <v>500</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="114"/>
+      <c r="E41" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="15"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="63"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="121"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="78" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="13">
+      <c r="C46" s="79">
         <v>44287</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="80">
         <v>1</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="11">
+      <c r="C47" s="83">
         <v>44301</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="84">
         <v>1</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="11">
+      <c r="C48" s="83">
         <v>44316</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="84">
         <v>1</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
     </row>
     <row r="49" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="11">
+      <c r="C49" s="83">
         <v>44287</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="84">
         <v>0</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
     </row>
     <row r="50" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="11">
+      <c r="C50" s="83">
         <v>44301</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="84">
         <v>0</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
     </row>
     <row r="51" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="9">
+      <c r="C51" s="87">
         <v>44316</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="88">
         <v>-1</v>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
     </row>
     <row r="53" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="75" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="122">
         <v>44227</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="122">
         <f t="shared" ref="E54:Q54" si="1">EOMONTH(D54,1)</f>
         <v>44255</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="122">
         <f t="shared" si="1"/>
         <v>44286</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="122">
         <f t="shared" si="1"/>
         <v>44316</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="122">
         <f t="shared" si="1"/>
         <v>44347</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="122">
         <f t="shared" si="1"/>
         <v>44377</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="122">
         <f t="shared" si="1"/>
         <v>44408</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="122">
         <f t="shared" si="1"/>
         <v>44439</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="122">
         <f t="shared" si="1"/>
         <v>44469</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="122">
         <f t="shared" si="1"/>
         <v>44500</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="123">
         <f t="shared" si="1"/>
         <v>44530</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="122">
         <f t="shared" si="1"/>
         <v>44561</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="122">
         <f t="shared" si="1"/>
         <v>44592</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="122">
         <f t="shared" si="1"/>
         <v>44620</v>
       </c>
     </row>
     <row r="55" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="124">
         <v>1</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="124">
         <v>1</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="124">
         <v>1</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="124">
         <v>1</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="124">
         <v>1</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="124">
         <v>1</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="124">
         <v>2</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="124">
         <v>2</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="124">
         <v>2</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="124">
         <v>2</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="125">
         <v>2</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="124">
         <v>2</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="124">
         <v>3</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="124">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="126">
         <f t="shared" ref="D56:Q56" si="2">YEAR(D54)</f>
         <v>2021</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="127">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="126">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="126">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q56" s="126">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
     </row>
     <row r="57" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="46">
+      <c r="D57" s="128">
         <f>MONTH(D54)</f>
         <v>1</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="128">
         <f t="shared" ref="E57:Q57" si="3">MONTH(E54)</f>
         <v>2</v>
       </c>
-      <c r="F57" s="46">
+      <c r="F57" s="128">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="128">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H57" s="46">
+      <c r="H57" s="128">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I57" s="46">
+      <c r="I57" s="128">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J57" s="46">
+      <c r="J57" s="128">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K57" s="46">
+      <c r="K57" s="128">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L57" s="46">
+      <c r="L57" s="128">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M57" s="46">
+      <c r="M57" s="128">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N57" s="46">
+      <c r="N57" s="129">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="O57" s="46">
+      <c r="O57" s="128">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="P57" s="46">
+      <c r="P57" s="128">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q57" s="46">
+      <c r="Q57" s="128">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="111">
         <v>100</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="111">
         <v>100</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="111">
         <v>100</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="111">
         <v>100</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="111">
         <v>100</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="111">
         <v>100</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="111">
         <v>100</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="111">
         <v>100</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="111">
         <v>100</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="111">
         <v>100</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="130">
         <v>100</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="111">
         <v>100</v>
       </c>
-      <c r="P58" s="2">
+      <c r="P58" s="111">
         <v>100</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="111">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="49"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="49"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="49"/>
+      <c r="F62" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
+++ b/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwchae23\QuantifyPro\workplace\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\강의자료\[강의자료]엑셀로만드는-부동산-financial-modeling-ch01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuantifyPro\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\강의자료\[강의자료]엑셀로만드는-부동산-financial-modeling-ch01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A1B21-AA0F-497B-A3BF-5D999C5F4E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="함수예시문제" sheetId="1" r:id="rId1"/>
     <sheet name="상승률 예시문제" sheetId="2" r:id="rId2"/>
     <sheet name="실습0909" sheetId="3" r:id="rId3"/>
     <sheet name="함수예시문제 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="상승률 예시문제 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="py">'[1]A&amp;R'!$D$11</definedName>
     <definedName name="start">[2]민감도분석!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,6 +39,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
   <si>
     <t>2021년도 값의 합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -540,12 +544,17 @@
     <t>&gt;&gt; 수식은 건드리지 않고 다른 결과를 참조하도록 하고 싶을 때 사용!!!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>=choose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="13">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="General&quot;년&quot;"/>
     <numFmt numFmtId="177" formatCode="General&quot;기&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\);\-_)"/>
@@ -557,6 +566,7 @@
     <numFmt numFmtId="184" formatCode="General&quot;월&quot;"/>
     <numFmt numFmtId="185" formatCode="#,##0_ "/>
     <numFmt numFmtId="186" formatCode="#,##0_);[Red]\(#,##0\);\-_)\ &quot;평&quot;"/>
+    <numFmt numFmtId="189" formatCode="#,##0.00_);[Red]\(#,##0.00\);\-_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -893,15 +903,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,7 +1035,7 @@
     <xf numFmtId="183" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1124,183 +1137,211 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1320,6 +1361,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="15" noThreeD="1" sel="0" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$G$38" fmlaRange="$C$38:$C$39" noThreeD="1" sel="2" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1337,7 +1382,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1380,7 +1431,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1430,6 +1487,72 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1467,7 +1590,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="A&amp;R"/>
@@ -1502,7 +1625,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PFV A&amp;R"/>
@@ -1834,7 +1957,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:Q62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
@@ -2262,15 +2386,15 @@
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
       <c r="D42" s="2"/>
       <c r="E42" s="63"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="45" t="s">
@@ -2682,7 +2806,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:BE30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3354,7 +3479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:V41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
@@ -3758,415 +3884,605 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:R62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="76" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="76" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="76" customWidth="1"/>
-    <col min="4" max="4" width="10" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10" style="76" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="76" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="76" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="76" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1" style="77" customWidth="1"/>
-    <col min="15" max="16" width="9.875" style="76" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="76" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="76"/>
+    <col min="1" max="1" width="4.875" style="75" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="75" customWidth="1"/>
+    <col min="4" max="4" width="10" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="75" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10" style="75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="75" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1" style="76" customWidth="1"/>
+    <col min="15" max="16" width="9.875" style="75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="75" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="131" t="s">
+      <c r="Q2" s="129" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="75" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="79">
+      <c r="C5" s="78">
         <v>44287</v>
       </c>
-      <c r="D5" s="80">
-        <v>1</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="81"/>
-      <c r="Q5" s="76" t="s">
+      <c r="D5" s="79">
+        <v>1</v>
+      </c>
+      <c r="E5" s="80">
+        <f>EOMONTH(C5,D5)</f>
+        <v>44347</v>
+      </c>
+      <c r="F5" s="132">
+        <f>DATEDIF(C5,E5,"m")</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="132">
+        <f>DATEDIF(C5,E5,"d")</f>
+        <v>60</v>
+      </c>
+      <c r="H5" s="81">
+        <f>DATEDIF(C5,E5,"y")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="81">
+        <f>YEAR(E5)</f>
+        <v>2021</v>
+      </c>
+      <c r="J5" s="81">
+        <f>MONTH(C5)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="81">
+        <f>DAY(C5)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="80">
+        <f>DATE(I5,J5,K5)</f>
+        <v>44287</v>
+      </c>
+      <c r="Q5" s="75" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="83">
+      <c r="C6" s="82">
         <v>44301</v>
       </c>
-      <c r="D6" s="84">
-        <v>1</v>
-      </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="85"/>
-      <c r="Q6" s="76" t="s">
+      <c r="D6" s="83">
+        <v>1</v>
+      </c>
+      <c r="E6" s="84">
+        <f t="shared" ref="E6:E10" si="0">EOMONTH(C6,D6)</f>
+        <v>44347</v>
+      </c>
+      <c r="F6" s="133">
+        <f t="shared" ref="F6:F10" si="1">DATEDIF(C6,E6,"m")</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="133">
+        <f t="shared" ref="G6:G10" si="2">DATEDIF(C6,E6,"d")</f>
+        <v>46</v>
+      </c>
+      <c r="H6" s="85">
+        <f t="shared" ref="H6:H10" si="3">DATEDIF(C6,E6,"y")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="85">
+        <f t="shared" ref="I6:I10" si="4">YEAR(E6)</f>
+        <v>2021</v>
+      </c>
+      <c r="J6" s="85">
+        <f t="shared" ref="J6:J10" si="5">MONTH(C6)</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="85">
+        <f t="shared" ref="K6:K10" si="6">DAY(C6)</f>
+        <v>15</v>
+      </c>
+      <c r="L6" s="84">
+        <f t="shared" ref="L6:L10" si="7">DATE(I6,J6,K6)</f>
+        <v>44301</v>
+      </c>
+      <c r="Q6" s="75" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="83">
+      <c r="C7" s="82">
         <v>44316</v>
       </c>
-      <c r="D7" s="84">
-        <v>1</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="85"/>
-      <c r="Q7" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" s="76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="83">
-        <v>44287</v>
-      </c>
-      <c r="D8" s="84">
-        <v>0</v>
-      </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="85"/>
-      <c r="Q8" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="83">
-        <v>44301</v>
-      </c>
-      <c r="D9" s="84">
-        <v>0</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="85"/>
-    </row>
-    <row r="10" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="87">
-        <v>44316</v>
-      </c>
-      <c r="D10" s="88">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="89"/>
-    </row>
-    <row r="12" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="91">
-        <v>44286</v>
-      </c>
-      <c r="E13" s="91">
-        <f t="shared" ref="E13:J13" si="0">EOMONTH(D13,1)</f>
-        <v>44316</v>
-      </c>
-      <c r="F13" s="91">
+      <c r="D7" s="83">
+        <v>1</v>
+      </c>
+      <c r="E7" s="84">
         <f t="shared" si="0"/>
         <v>44347</v>
       </c>
-      <c r="G13" s="91">
+      <c r="F7" s="133">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="133">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="H7" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="85">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="J7" s="85">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="85">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="L7" s="84">
+        <f t="shared" si="7"/>
+        <v>44316</v>
+      </c>
+      <c r="Q7" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="82">
+        <v>44287</v>
+      </c>
+      <c r="D8" s="83">
+        <v>0</v>
+      </c>
+      <c r="E8" s="84">
         <f t="shared" si="0"/>
+        <v>44316</v>
+      </c>
+      <c r="F8" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="133">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H8" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="85">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="J8" s="85">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="85">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="84">
+        <f t="shared" si="7"/>
+        <v>44287</v>
+      </c>
+      <c r="Q8" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="82">
+        <v>44301</v>
+      </c>
+      <c r="D9" s="83">
+        <v>0</v>
+      </c>
+      <c r="E9" s="84">
+        <f t="shared" si="0"/>
+        <v>44316</v>
+      </c>
+      <c r="F9" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="133">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="85">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="J9" s="85">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="85">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="L9" s="84">
+        <f t="shared" si="7"/>
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="86">
+        <v>44316</v>
+      </c>
+      <c r="D10" s="87">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="88">
+        <f t="shared" si="0"/>
+        <v>44286</v>
+      </c>
+      <c r="F10" s="134" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" s="134" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" s="89" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" s="89">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="J10" s="89">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="89">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="L10" s="88">
+        <f t="shared" si="7"/>
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="90">
+        <v>44286</v>
+      </c>
+      <c r="E13" s="90">
+        <f t="shared" ref="E13:J13" si="8">EOMONTH(D13,1)</f>
+        <v>44316</v>
+      </c>
+      <c r="F13" s="90">
+        <f t="shared" si="8"/>
+        <v>44347</v>
+      </c>
+      <c r="G13" s="90">
+        <f t="shared" si="8"/>
         <v>44377</v>
       </c>
-      <c r="H13" s="91">
-        <f t="shared" si="0"/>
+      <c r="H13" s="90">
+        <f t="shared" si="8"/>
         <v>44408</v>
       </c>
-      <c r="I13" s="91">
-        <f t="shared" si="0"/>
+      <c r="I13" s="90">
+        <f t="shared" si="8"/>
         <v>44439</v>
       </c>
-      <c r="J13" s="91">
-        <f t="shared" si="0"/>
+      <c r="J13" s="90">
+        <f t="shared" si="8"/>
         <v>44469</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="90">
         <v>44347</v>
       </c>
-      <c r="Q14" s="76" t="s">
+      <c r="Q14" s="75" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="Q15" s="76" t="s">
+      <c r="D15" s="92">
+        <f>(D13=$D$14)*1</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="92">
+        <f t="shared" ref="E15:J15" si="9">(E13=$D$14)*1</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="92">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="75" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="76" t="s">
+      <c r="P17" s="75" t="s">
         <v>111</v>
       </c>
       <c r="Q17" s="45">
         <v>15</v>
       </c>
-      <c r="R17" s="76" t="s">
+      <c r="R17" s="75" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="R18" s="76" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="R18" s="75" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R19" s="76" t="s">
+      <c r="R19" s="75" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="74" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="94">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="98" t="s">
+      <c r="G22" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="76" t="str">
+      <c r="I22" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="75" t="str">
         <f>Q14</f>
         <v>안녕하세요</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100">
+      <c r="D23" s="98">
+        <f ca="1">OFFSET(D23,0,$D$21)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="99">
         <v>0.1</v>
       </c>
-      <c r="F23" s="101">
+      <c r="F23" s="100">
         <v>0.2</v>
       </c>
-      <c r="G23" s="102">
+      <c r="G23" s="101">
         <v>0.3</v>
       </c>
-      <c r="Q23" s="76" t="str">
+      <c r="I23" s="135">
+        <f>CHOOSE($D$21,E23,F23,G23)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q23" s="75" t="str">
         <f ca="1">INDIRECT("Q"&amp;Q17)</f>
         <v>처음뵙겠습니다</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104">
+      <c r="D24" s="102">
+        <f t="shared" ref="D24:D25" ca="1" si="10">OFFSET(D24,0,$D$21)</f>
+        <v>26000</v>
+      </c>
+      <c r="E24" s="103">
         <v>24000</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="104">
         <v>25000</v>
       </c>
-      <c r="G24" s="106">
+      <c r="G24" s="105">
         <v>26000</v>
       </c>
+      <c r="I24" s="136">
+        <f t="shared" ref="I24:I25" si="11">CHOOSE($D$21,E24,F24,G24)</f>
+        <v>26000</v>
+      </c>
     </row>
     <row r="25" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108">
+      <c r="D25" s="106">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E25" s="107">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="108">
         <v>4.7E-2</v>
       </c>
-      <c r="G25" s="110">
+      <c r="G25" s="109">
         <v>4.9000000000000002E-2</v>
       </c>
+      <c r="I25" s="137">
+        <f t="shared" si="11"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="74" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111" t="s">
+      <c r="D28" s="110"/>
+      <c r="E28" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="111"/>
+      <c r="G28" s="110"/>
     </row>
     <row r="29" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="112">
+      <c r="E29" s="111">
         <v>46000</v>
       </c>
-      <c r="F29" s="113">
+      <c r="F29" s="112">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="112">
+      <c r="E30" s="111">
         <v>920</v>
       </c>
-      <c r="F30" s="113">
+      <c r="F30" s="112">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="112">
+      <c r="E31" s="111">
         <v>800</v>
       </c>
-      <c r="F31" s="113">
+      <c r="F31" s="112">
         <v>1</v>
       </c>
     </row>
@@ -4175,491 +4491,512 @@
         <v>58</v>
       </c>
       <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="113">
+      <c r="E32" s="51">
+        <f ca="1">G35*4.6%</f>
+        <v>2195.12</v>
+      </c>
+      <c r="F32" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="112">
+      <c r="E33" s="111">
         <v>29</v>
       </c>
-      <c r="F33" s="113">
+      <c r="F33" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="112">
+      <c r="E34" s="111">
         <v>31</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="114" t="s">
+      <c r="C35" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="115">
-        <f>SUM(E29:E34)</f>
-        <v>47780</v>
-      </c>
-      <c r="F35" s="116"/>
-      <c r="G35" s="114"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="114">
+        <f ca="1">SUM(E29:E34)</f>
+        <v>49975.12</v>
+      </c>
+      <c r="F35" s="115"/>
+      <c r="G35" s="139">
+        <f ca="1">SUMPRODUCT($E$29:$E$34,F29:F34)</f>
+        <v>47720</v>
+      </c>
     </row>
     <row r="37" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="74" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="75">
         <v>300</v>
       </c>
       <c r="E38" s="50"/>
+      <c r="G38" s="75">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="76">
+      <c r="D39" s="75">
         <v>500</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="117" t="s">
+      <c r="C41" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="118" t="s">
+      <c r="D41" s="113"/>
+      <c r="E41" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="120"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="121"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="119">
+        <f>IF(G38=1,D38,D39)</f>
+        <v>500</v>
+      </c>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="76" t="s">
+      <c r="F44" s="75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="78" t="s">
+      <c r="G45" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H45" s="77" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="79">
+      <c r="C46" s="78">
         <v>44287</v>
       </c>
-      <c r="D46" s="80">
-        <v>1</v>
-      </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
+      <c r="D46" s="79">
+        <v>1</v>
+      </c>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="83">
+      <c r="C47" s="82">
         <v>44301</v>
       </c>
-      <c r="D47" s="84">
-        <v>1</v>
-      </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
+      <c r="D47" s="83">
+        <v>1</v>
+      </c>
+      <c r="E47" s="84"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="83">
+      <c r="C48" s="82">
         <v>44316</v>
       </c>
-      <c r="D48" s="84">
-        <v>1</v>
-      </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
+      <c r="D48" s="83">
+        <v>1</v>
+      </c>
+      <c r="E48" s="84"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
     </row>
     <row r="49" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="83">
+      <c r="C49" s="82">
         <v>44287</v>
       </c>
-      <c r="D49" s="84">
-        <v>0</v>
-      </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
+      <c r="D49" s="83">
+        <v>0</v>
+      </c>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
     </row>
     <row r="50" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="83">
+      <c r="C50" s="82">
         <v>44301</v>
       </c>
-      <c r="D50" s="84">
-        <v>0</v>
-      </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
+      <c r="D50" s="83">
+        <v>0</v>
+      </c>
+      <c r="E50" s="84"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
     </row>
     <row r="51" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="87">
+      <c r="C51" s="86">
         <v>44316</v>
       </c>
-      <c r="D51" s="88">
+      <c r="D51" s="87">
         <v>-1</v>
       </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
     </row>
     <row r="53" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="74" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="122">
+      <c r="D54" s="120">
         <v>44227</v>
       </c>
-      <c r="E54" s="122">
-        <f t="shared" ref="E54:Q54" si="1">EOMONTH(D54,1)</f>
+      <c r="E54" s="120">
+        <f t="shared" ref="E54:Q54" si="12">EOMONTH(D54,1)</f>
         <v>44255</v>
       </c>
-      <c r="F54" s="122">
-        <f t="shared" si="1"/>
+      <c r="F54" s="120">
+        <f t="shared" si="12"/>
         <v>44286</v>
       </c>
-      <c r="G54" s="122">
-        <f t="shared" si="1"/>
+      <c r="G54" s="120">
+        <f t="shared" si="12"/>
         <v>44316</v>
       </c>
-      <c r="H54" s="122">
-        <f t="shared" si="1"/>
+      <c r="H54" s="120">
+        <f t="shared" si="12"/>
         <v>44347</v>
       </c>
-      <c r="I54" s="122">
-        <f t="shared" si="1"/>
+      <c r="I54" s="120">
+        <f t="shared" si="12"/>
         <v>44377</v>
       </c>
-      <c r="J54" s="122">
-        <f t="shared" si="1"/>
+      <c r="J54" s="120">
+        <f t="shared" si="12"/>
         <v>44408</v>
       </c>
-      <c r="K54" s="122">
-        <f t="shared" si="1"/>
+      <c r="K54" s="120">
+        <f t="shared" si="12"/>
         <v>44439</v>
       </c>
-      <c r="L54" s="122">
-        <f t="shared" si="1"/>
+      <c r="L54" s="120">
+        <f t="shared" si="12"/>
         <v>44469</v>
       </c>
-      <c r="M54" s="122">
-        <f t="shared" si="1"/>
+      <c r="M54" s="120">
+        <f t="shared" si="12"/>
         <v>44500</v>
       </c>
-      <c r="N54" s="123">
-        <f t="shared" si="1"/>
+      <c r="N54" s="121">
+        <f t="shared" si="12"/>
         <v>44530</v>
       </c>
-      <c r="O54" s="122">
-        <f t="shared" si="1"/>
+      <c r="O54" s="120">
+        <f t="shared" si="12"/>
         <v>44561</v>
       </c>
-      <c r="P54" s="122">
-        <f t="shared" si="1"/>
+      <c r="P54" s="120">
+        <f t="shared" si="12"/>
         <v>44592</v>
       </c>
-      <c r="Q54" s="122">
-        <f t="shared" si="1"/>
+      <c r="Q54" s="120">
+        <f t="shared" si="12"/>
         <v>44620</v>
       </c>
     </row>
     <row r="55" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="114" t="s">
+      <c r="C55" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="124">
-        <v>1</v>
-      </c>
-      <c r="E55" s="124">
-        <v>1</v>
-      </c>
-      <c r="F55" s="124">
-        <v>1</v>
-      </c>
-      <c r="G55" s="124">
-        <v>1</v>
-      </c>
-      <c r="H55" s="124">
-        <v>1</v>
-      </c>
-      <c r="I55" s="124">
-        <v>1</v>
-      </c>
-      <c r="J55" s="124">
+      <c r="D55" s="122">
+        <v>1</v>
+      </c>
+      <c r="E55" s="122">
+        <v>1</v>
+      </c>
+      <c r="F55" s="122">
+        <v>1</v>
+      </c>
+      <c r="G55" s="122">
+        <v>1</v>
+      </c>
+      <c r="H55" s="122">
+        <v>1</v>
+      </c>
+      <c r="I55" s="122">
+        <v>1</v>
+      </c>
+      <c r="J55" s="122">
         <v>2</v>
       </c>
-      <c r="K55" s="124">
+      <c r="K55" s="122">
         <v>2</v>
       </c>
-      <c r="L55" s="124">
+      <c r="L55" s="122">
         <v>2</v>
       </c>
-      <c r="M55" s="124">
+      <c r="M55" s="122">
         <v>2</v>
       </c>
-      <c r="N55" s="125">
+      <c r="N55" s="123">
         <v>2</v>
       </c>
-      <c r="O55" s="124">
+      <c r="O55" s="122">
         <v>2</v>
       </c>
-      <c r="P55" s="124">
+      <c r="P55" s="122">
         <v>3</v>
       </c>
-      <c r="Q55" s="124">
+      <c r="Q55" s="122">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="126">
-        <f t="shared" ref="D56:Q56" si="2">YEAR(D54)</f>
+      <c r="D56" s="124">
+        <f t="shared" ref="D56:Q56" si="13">YEAR(D54)</f>
         <v>2021</v>
       </c>
-      <c r="E56" s="126">
-        <f t="shared" si="2"/>
+      <c r="E56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="F56" s="126">
-        <f t="shared" si="2"/>
+      <c r="F56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="G56" s="126">
-        <f t="shared" si="2"/>
+      <c r="G56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="H56" s="126">
-        <f t="shared" si="2"/>
+      <c r="H56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="I56" s="126">
-        <f t="shared" si="2"/>
+      <c r="I56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="J56" s="126">
-        <f t="shared" si="2"/>
+      <c r="J56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="K56" s="126">
-        <f t="shared" si="2"/>
+      <c r="K56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="L56" s="126">
-        <f t="shared" si="2"/>
+      <c r="L56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="M56" s="126">
-        <f t="shared" si="2"/>
+      <c r="M56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="N56" s="127">
-        <f t="shared" si="2"/>
+      <c r="N56" s="125">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="O56" s="126">
-        <f t="shared" si="2"/>
+      <c r="O56" s="124">
+        <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="P56" s="126">
-        <f t="shared" si="2"/>
+      <c r="P56" s="124">
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
-      <c r="Q56" s="126">
-        <f t="shared" si="2"/>
+      <c r="Q56" s="124">
+        <f t="shared" si="13"/>
         <v>2022</v>
       </c>
     </row>
     <row r="57" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="128">
+      <c r="D57" s="126">
         <f>MONTH(D54)</f>
         <v>1</v>
       </c>
-      <c r="E57" s="128">
-        <f t="shared" ref="E57:Q57" si="3">MONTH(E54)</f>
+      <c r="E57" s="126">
+        <f t="shared" ref="E57:Q57" si="14">MONTH(E54)</f>
         <v>2</v>
       </c>
-      <c r="F57" s="128">
-        <f t="shared" si="3"/>
+      <c r="F57" s="126">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="G57" s="128">
-        <f t="shared" si="3"/>
+      <c r="G57" s="126">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="H57" s="128">
-        <f t="shared" si="3"/>
+      <c r="H57" s="126">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="I57" s="128">
-        <f t="shared" si="3"/>
+      <c r="I57" s="126">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="J57" s="128">
-        <f t="shared" si="3"/>
+      <c r="J57" s="126">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="K57" s="128">
-        <f t="shared" si="3"/>
+      <c r="K57" s="126">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="L57" s="128">
-        <f t="shared" si="3"/>
+      <c r="L57" s="126">
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="M57" s="128">
-        <f t="shared" si="3"/>
+      <c r="M57" s="126">
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="N57" s="129">
-        <f t="shared" si="3"/>
+      <c r="N57" s="127">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="O57" s="128">
-        <f t="shared" si="3"/>
+      <c r="O57" s="126">
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="P57" s="128">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q57" s="128">
-        <f t="shared" si="3"/>
+      <c r="P57" s="126">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="126">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="111" t="s">
+      <c r="C58" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="111">
+      <c r="D58" s="110">
         <v>100</v>
       </c>
-      <c r="E58" s="111">
+      <c r="E58" s="110">
         <v>100</v>
       </c>
-      <c r="F58" s="111">
+      <c r="F58" s="110">
         <v>100</v>
       </c>
-      <c r="G58" s="111">
+      <c r="G58" s="110">
         <v>100</v>
       </c>
-      <c r="H58" s="111">
+      <c r="H58" s="110">
         <v>100</v>
       </c>
-      <c r="I58" s="111">
+      <c r="I58" s="110">
         <v>100</v>
       </c>
-      <c r="J58" s="111">
+      <c r="J58" s="110">
         <v>100</v>
       </c>
-      <c r="K58" s="111">
+      <c r="K58" s="110">
         <v>100</v>
       </c>
-      <c r="L58" s="111">
+      <c r="L58" s="110">
         <v>100</v>
       </c>
-      <c r="M58" s="111">
+      <c r="M58" s="110">
         <v>100</v>
       </c>
-      <c r="N58" s="130">
+      <c r="N58" s="128">
         <v>100</v>
       </c>
-      <c r="O58" s="111">
+      <c r="O58" s="110">
         <v>100</v>
       </c>
-      <c r="P58" s="111">
+      <c r="P58" s="110">
         <v>100</v>
       </c>
-      <c r="Q58" s="111">
+      <c r="Q58" s="110">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="50"/>
+      <c r="C60" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="50">
+        <f>SUMIF($D$55:$Q$55,"1",$D$58:$Q$58)</f>
+        <v>600</v>
+      </c>
     </row>
     <row r="61" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="50"/>
+      <c r="C61" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="50">
+        <f>SUMIF($D$56:$Q$56,2021,$D$58:$Q$58)</f>
+        <v>1200</v>
+      </c>
     </row>
     <row r="62" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="76" t="s">
+      <c r="C62" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="50"/>
+      <c r="F62" s="50">
+        <f>SUMIFS($D$58:$Q$58,$D$55:$Q$55,2,$D$57:$Q$57,"&lt;11")</f>
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4668,5 +5005,1564 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1CA262-16A9-4D3F-927A-882F65A20780}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:BE32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
+        <v>2</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3</v>
+      </c>
+      <c r="G4" s="22">
+        <v>4</v>
+      </c>
+      <c r="H4" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="24">
+        <v>24000</v>
+      </c>
+      <c r="D5" s="21">
+        <f>$C$5*(1+$C$4)^(D4-1)</f>
+        <v>24000</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ref="E5:H5" si="0">$C$5*(1+$C$4)^(E4-1)</f>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>24725.399999999994</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>25096.280999999992</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>25472.725214999988</v>
+      </c>
+    </row>
+    <row r="8" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="26">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26">
+        <f>EOMONTH(C10,24-1)</f>
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="13" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28">
+        <f>(D17&gt;=$C$10)*1*(D17&lt;=$C$11)*1</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" ref="E13:BE13" si="1">(E17&gt;=$C$10)*1*(E17&lt;=$C$11)*1</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28">
+        <f>SUM($D$13:D13)*D13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <f>SUM($D$13:E13)*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <f>SUM($D$13:F13)*F13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <f>SUM($D$13:G13)*G13</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="28">
+        <f>SUM($D$13:H13)*H13</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="28">
+        <f>SUM($D$13:I13)*I13</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="28">
+        <f>SUM($D$13:J13)*J13</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="28">
+        <f>SUM($D$13:K13)*K13</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="28">
+        <f>SUM($D$13:L13)*L13</f>
+        <v>6</v>
+      </c>
+      <c r="M14" s="28">
+        <f>SUM($D$13:M13)*M13</f>
+        <v>7</v>
+      </c>
+      <c r="N14" s="28">
+        <f>SUM($D$13:N13)*N13</f>
+        <v>8</v>
+      </c>
+      <c r="O14" s="28">
+        <f>SUM($D$13:O13)*O13</f>
+        <v>9</v>
+      </c>
+      <c r="P14" s="28">
+        <f>SUM($D$13:P13)*P13</f>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="28">
+        <f>SUM($D$13:Q13)*Q13</f>
+        <v>11</v>
+      </c>
+      <c r="R14" s="28">
+        <f>SUM($D$13:R13)*R13</f>
+        <v>12</v>
+      </c>
+      <c r="S14" s="28">
+        <f>SUM($D$13:S13)*S13</f>
+        <v>13</v>
+      </c>
+      <c r="T14" s="28">
+        <f>SUM($D$13:T13)*T13</f>
+        <v>14</v>
+      </c>
+      <c r="U14" s="28">
+        <f>SUM($D$13:U13)*U13</f>
+        <v>15</v>
+      </c>
+      <c r="V14" s="28">
+        <f>SUM($D$13:V13)*V13</f>
+        <v>16</v>
+      </c>
+      <c r="W14" s="28">
+        <f>SUM($D$13:W13)*W13</f>
+        <v>17</v>
+      </c>
+      <c r="X14" s="28">
+        <f>SUM($D$13:X13)*X13</f>
+        <v>18</v>
+      </c>
+      <c r="Y14" s="28">
+        <f>SUM($D$13:Y13)*Y13</f>
+        <v>19</v>
+      </c>
+      <c r="Z14" s="28">
+        <f>SUM($D$13:Z13)*Z13</f>
+        <v>20</v>
+      </c>
+      <c r="AA14" s="28">
+        <f>SUM($D$13:AA13)*AA13</f>
+        <v>21</v>
+      </c>
+      <c r="AB14" s="28">
+        <f>SUM($D$13:AB13)*AB13</f>
+        <v>22</v>
+      </c>
+      <c r="AC14" s="28">
+        <f>SUM($D$13:AC13)*AC13</f>
+        <v>23</v>
+      </c>
+      <c r="AD14" s="28">
+        <f>SUM($D$13:AD13)*AD13</f>
+        <v>24</v>
+      </c>
+      <c r="AE14" s="28">
+        <f>SUM($D$13:AE13)*AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="28">
+        <f>SUM($D$13:AF13)*AF13</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="28">
+        <f>SUM($D$13:AG13)*AG13</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="28">
+        <f>SUM($D$13:AH13)*AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="28">
+        <f>SUM($D$13:AI13)*AI13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="28">
+        <f>SUM($D$13:AJ13)*AJ13</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="28">
+        <f>SUM($D$13:AK13)*AK13</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="28">
+        <f>SUM($D$13:AL13)*AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="28">
+        <f>SUM($D$13:AM13)*AM13</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="28">
+        <f>SUM($D$13:AN13)*AN13</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="28">
+        <f>SUM($D$13:AO13)*AO13</f>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="28">
+        <f>SUM($D$13:AP13)*AP13</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="28">
+        <f>SUM($D$13:AQ13)*AQ13</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="28">
+        <f>SUM($D$13:AR13)*AR13</f>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="28">
+        <f>SUM($D$13:AS13)*AS13</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="28">
+        <f>SUM($D$13:AT13)*AT13</f>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="28">
+        <f>SUM($D$13:AU13)*AU13</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="28">
+        <f>SUM($D$13:AV13)*AV13</f>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="28">
+        <f>SUM($D$13:AW13)*AW13</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="28">
+        <f>SUM($D$13:AX13)*AX13</f>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="28">
+        <f>SUM($D$13:AY13)*AY13</f>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="28">
+        <f>SUM($D$13:AZ13)*AZ13</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="28">
+        <f>SUM($D$13:BA13)*BA13</f>
+        <v>0</v>
+      </c>
+      <c r="BB14" s="28">
+        <f>SUM($D$13:BB13)*BB13</f>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="28">
+        <f>SUM($D$13:BC13)*BC13</f>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="28">
+        <f>SUM($D$13:BD13)*BD13</f>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="28">
+        <f>SUM($D$13:BE13)*BE13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="140">
+        <f>(MOD(D14,$C$9)=1)*1</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="140">
+        <f t="shared" ref="E15:BE15" si="2">(MOD(E14,$C$9)=1)*1</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29">
+        <f>SUM(D$15:$G15)*D13</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <f>SUM(E$15:$G15)*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
+        <f>SUM(F$15:$G15)*F13</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <f>SUM($G$15:G15)*G13</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="29">
+        <f>SUM($G$15:H15)*H13</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
+        <f>SUM($G$15:I15)*I13</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="29">
+        <f>SUM($G$15:J15)*J13</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="29">
+        <f>SUM($G$15:K15)*K13</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="29">
+        <f>SUM($G$15:L15)*L13</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="29">
+        <f>SUM($G$15:M15)*M13</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="29">
+        <f>SUM($G$15:N15)*N13</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="29">
+        <f>SUM($G$15:O15)*O13</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="29">
+        <f>SUM($G$15:P15)*P13</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="29">
+        <f>SUM($G$15:Q15)*Q13</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="29">
+        <f>SUM($G$15:R15)*R13</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="29">
+        <f>SUM($G$15:S15)*S13</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="29">
+        <f>SUM($G$15:T15)*T13</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="29">
+        <f>SUM($G$15:U15)*U13</f>
+        <v>2</v>
+      </c>
+      <c r="V16" s="29">
+        <f>SUM($G$15:V15)*V13</f>
+        <v>2</v>
+      </c>
+      <c r="W16" s="29">
+        <f>SUM($G$15:W15)*W13</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="29">
+        <f>SUM($G$15:X15)*X13</f>
+        <v>2</v>
+      </c>
+      <c r="Y16" s="29">
+        <f>SUM($G$15:Y15)*Y13</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="29">
+        <f>SUM($G$15:Z15)*Z13</f>
+        <v>2</v>
+      </c>
+      <c r="AA16" s="29">
+        <f>SUM($G$15:AA15)*AA13</f>
+        <v>2</v>
+      </c>
+      <c r="AB16" s="29">
+        <f>SUM($G$15:AB15)*AB13</f>
+        <v>2</v>
+      </c>
+      <c r="AC16" s="29">
+        <f>SUM($G$15:AC15)*AC13</f>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="29">
+        <f>SUM($G$15:AD15)*AD13</f>
+        <v>2</v>
+      </c>
+      <c r="AE16" s="29">
+        <f>SUM($G$15:AE15)*AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="29">
+        <f>SUM($G$15:AF15)*AF13</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="29">
+        <f>SUM($G$15:AG15)*AG13</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="29">
+        <f>SUM($G$15:AH15)*AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="29">
+        <f>SUM($G$15:AI15)*AI13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="29">
+        <f>SUM($G$15:AJ15)*AJ13</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="29">
+        <f>SUM($G$15:AK15)*AK13</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="29">
+        <f>SUM($G$15:AL15)*AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="29">
+        <f>SUM($G$15:AM15)*AM13</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="29">
+        <f>SUM($G$15:AN15)*AN13</f>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="29">
+        <f>SUM($G$15:AO15)*AO13</f>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="29">
+        <f>SUM($G$15:AP15)*AP13</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="29">
+        <f>SUM($G$15:AQ15)*AQ13</f>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="29">
+        <f>SUM($G$15:AR15)*AR13</f>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="29">
+        <f>SUM($G$15:AS15)*AS13</f>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="29">
+        <f>SUM($G$15:AT15)*AT13</f>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="29">
+        <f>SUM($G$15:AU15)*AU13</f>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="29">
+        <f>SUM($G$15:AV15)*AV13</f>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="29">
+        <f>SUM($G$15:AW15)*AW13</f>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="29">
+        <f>SUM($G$15:AX15)*AX13</f>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="29">
+        <f>SUM($G$15:AY15)*AY13</f>
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="29">
+        <f>SUM($G$15:AZ15)*AZ13</f>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="29">
+        <f>SUM($G$15:BA15)*BA13</f>
+        <v>0</v>
+      </c>
+      <c r="BB16" s="29">
+        <f>SUM($G$15:BB15)*BB13</f>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="29">
+        <f>SUM($G$15:BC15)*BC13</f>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="29">
+        <f>SUM($G$15:BD15)*BD13</f>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="29">
+        <f>SUM($G$15:BE15)*BE13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30">
+        <v>44227</v>
+      </c>
+      <c r="E17" s="30">
+        <f>EOMONTH(D17,1)</f>
+        <v>44255</v>
+      </c>
+      <c r="F17" s="30">
+        <f t="shared" ref="F17:BE17" si="3">EOMONTH(E17,1)</f>
+        <v>44286</v>
+      </c>
+      <c r="G17" s="30">
+        <f t="shared" si="3"/>
+        <v>44316</v>
+      </c>
+      <c r="H17" s="30">
+        <f t="shared" si="3"/>
+        <v>44347</v>
+      </c>
+      <c r="I17" s="30">
+        <f t="shared" si="3"/>
+        <v>44377</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" si="3"/>
+        <v>44408</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" si="3"/>
+        <v>44439</v>
+      </c>
+      <c r="L17" s="30">
+        <f t="shared" si="3"/>
+        <v>44469</v>
+      </c>
+      <c r="M17" s="30">
+        <f t="shared" si="3"/>
+        <v>44500</v>
+      </c>
+      <c r="N17" s="30">
+        <f t="shared" si="3"/>
+        <v>44530</v>
+      </c>
+      <c r="O17" s="30">
+        <f t="shared" si="3"/>
+        <v>44561</v>
+      </c>
+      <c r="P17" s="30">
+        <f t="shared" si="3"/>
+        <v>44592</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" si="3"/>
+        <v>44620</v>
+      </c>
+      <c r="R17" s="30">
+        <f t="shared" si="3"/>
+        <v>44651</v>
+      </c>
+      <c r="S17" s="30">
+        <f t="shared" si="3"/>
+        <v>44681</v>
+      </c>
+      <c r="T17" s="30">
+        <f t="shared" si="3"/>
+        <v>44712</v>
+      </c>
+      <c r="U17" s="30">
+        <f t="shared" si="3"/>
+        <v>44742</v>
+      </c>
+      <c r="V17" s="30">
+        <f t="shared" si="3"/>
+        <v>44773</v>
+      </c>
+      <c r="W17" s="30">
+        <f t="shared" si="3"/>
+        <v>44804</v>
+      </c>
+      <c r="X17" s="30">
+        <f t="shared" si="3"/>
+        <v>44834</v>
+      </c>
+      <c r="Y17" s="30">
+        <f t="shared" si="3"/>
+        <v>44865</v>
+      </c>
+      <c r="Z17" s="30">
+        <f t="shared" si="3"/>
+        <v>44895</v>
+      </c>
+      <c r="AA17" s="30">
+        <f t="shared" si="3"/>
+        <v>44926</v>
+      </c>
+      <c r="AB17" s="30">
+        <f t="shared" si="3"/>
+        <v>44957</v>
+      </c>
+      <c r="AC17" s="30">
+        <f t="shared" si="3"/>
+        <v>44985</v>
+      </c>
+      <c r="AD17" s="30">
+        <f t="shared" si="3"/>
+        <v>45016</v>
+      </c>
+      <c r="AE17" s="30">
+        <f t="shared" si="3"/>
+        <v>45046</v>
+      </c>
+      <c r="AF17" s="30">
+        <f t="shared" si="3"/>
+        <v>45077</v>
+      </c>
+      <c r="AG17" s="30">
+        <f t="shared" si="3"/>
+        <v>45107</v>
+      </c>
+      <c r="AH17" s="30">
+        <f t="shared" si="3"/>
+        <v>45138</v>
+      </c>
+      <c r="AI17" s="30">
+        <f t="shared" si="3"/>
+        <v>45169</v>
+      </c>
+      <c r="AJ17" s="30">
+        <f t="shared" si="3"/>
+        <v>45199</v>
+      </c>
+      <c r="AK17" s="30">
+        <f t="shared" si="3"/>
+        <v>45230</v>
+      </c>
+      <c r="AL17" s="30">
+        <f t="shared" si="3"/>
+        <v>45260</v>
+      </c>
+      <c r="AM17" s="30">
+        <f t="shared" si="3"/>
+        <v>45291</v>
+      </c>
+      <c r="AN17" s="30">
+        <f t="shared" si="3"/>
+        <v>45322</v>
+      </c>
+      <c r="AO17" s="30">
+        <f t="shared" si="3"/>
+        <v>45351</v>
+      </c>
+      <c r="AP17" s="30">
+        <f t="shared" si="3"/>
+        <v>45382</v>
+      </c>
+      <c r="AQ17" s="30">
+        <f t="shared" si="3"/>
+        <v>45412</v>
+      </c>
+      <c r="AR17" s="30">
+        <f t="shared" si="3"/>
+        <v>45443</v>
+      </c>
+      <c r="AS17" s="30">
+        <f t="shared" si="3"/>
+        <v>45473</v>
+      </c>
+      <c r="AT17" s="30">
+        <f t="shared" si="3"/>
+        <v>45504</v>
+      </c>
+      <c r="AU17" s="30">
+        <f t="shared" si="3"/>
+        <v>45535</v>
+      </c>
+      <c r="AV17" s="30">
+        <f t="shared" si="3"/>
+        <v>45565</v>
+      </c>
+      <c r="AW17" s="30">
+        <f t="shared" si="3"/>
+        <v>45596</v>
+      </c>
+      <c r="AX17" s="30">
+        <f t="shared" si="3"/>
+        <v>45626</v>
+      </c>
+      <c r="AY17" s="30">
+        <f t="shared" si="3"/>
+        <v>45657</v>
+      </c>
+      <c r="AZ17" s="30">
+        <f t="shared" si="3"/>
+        <v>45688</v>
+      </c>
+      <c r="BA17" s="30">
+        <f t="shared" si="3"/>
+        <v>45716</v>
+      </c>
+      <c r="BB17" s="30">
+        <f t="shared" si="3"/>
+        <v>45747</v>
+      </c>
+      <c r="BC17" s="30">
+        <f t="shared" si="3"/>
+        <v>45777</v>
+      </c>
+      <c r="BD17" s="30">
+        <f t="shared" si="3"/>
+        <v>45808</v>
+      </c>
+      <c r="BE17" s="30">
+        <f t="shared" si="3"/>
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="18" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="18">
+        <f>$C$5*(1+$C$4)^(D16-1)*D13</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" ref="E18:BE18" si="4">$C$5*(1+$C$4)^(E16-1)*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="N18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="R18" s="18">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="V18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="W18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="X18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="Y18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="Z18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="AA18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="AB18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="AC18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="AD18" s="18">
+        <f t="shared" si="4"/>
+        <v>24359.999999999996</v>
+      </c>
+      <c r="AE18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="64"/>
+    </row>
+    <row r="22" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="21">
+        <f>H5</f>
+        <v>25472.725214999988</v>
+      </c>
+    </row>
+    <row r="23" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="21">
+        <f>D5</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="66">
+        <v>5</v>
+      </c>
+      <c r="F24" s="65"/>
+    </row>
+    <row r="25" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="73">
+        <f>(D22/D23)^(1/(D24-1))-1</f>
+        <v>1.4999999999999902E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="67">
+        <f>H4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="21">
+        <f>D5</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="21">
+        <f>H5</f>
+        <v>25472.725214999988</v>
+      </c>
+      <c r="F30" s="65"/>
+    </row>
+    <row r="32" spans="2:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="65">
+        <f>RATE(D27-1,0,-D29,D30)</f>
+        <v>1.5000000000577269E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
+++ b/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/강의자료/[강의자료]엑셀로만드는-부동산-financial-modeling-ch01/기초 함수 실습예제_Chapter01_Clip04_05(실습용).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuantifyPro\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\강의자료\[강의자료]엑셀로만드는-부동산-financial-modeling-ch01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwchae23\QuantifyPro\workplace\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\강의자료\[강의자료]엑셀로만드는-부동산-financial-modeling-ch01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A1B21-AA0F-497B-A3BF-5D999C5F4E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="함수예시문제" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="py">'[1]A&amp;R'!$D$11</definedName>
     <definedName name="start">[2]민감도분석!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -552,7 +551,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="General&quot;년&quot;"/>
@@ -566,7 +565,7 @@
     <numFmt numFmtId="184" formatCode="General&quot;월&quot;"/>
     <numFmt numFmtId="185" formatCode="#,##0_ "/>
     <numFmt numFmtId="186" formatCode="#,##0_);[Red]\(#,##0\);\-_)\ &quot;평&quot;"/>
-    <numFmt numFmtId="189" formatCode="#,##0.00_);[Red]\(#,##0.00\);\-_)"/>
+    <numFmt numFmtId="187" formatCode="#,##0.00_);[Red]\(#,##0.00\);\-_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1305,38 +1304,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1590,7 +1589,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="A&amp;R"/>
@@ -1625,7 +1624,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PFV A&amp;R"/>
@@ -1957,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:Q62"/>
   <sheetViews>
@@ -2386,15 +2385,15 @@
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
       <c r="D42" s="2"/>
       <c r="E42" s="63"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="45" t="s">
@@ -2806,7 +2805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:BE30"/>
   <sheetViews>
@@ -3479,11 +3478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:V41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -3884,12 +3883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:R62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3971,11 +3970,11 @@
         <f>EOMONTH(C5,D5)</f>
         <v>44347</v>
       </c>
-      <c r="F5" s="132">
+      <c r="F5" s="130">
         <f>DATEDIF(C5,E5,"m")</f>
         <v>1</v>
       </c>
-      <c r="G5" s="132">
+      <c r="G5" s="130">
         <f>DATEDIF(C5,E5,"d")</f>
         <v>60</v>
       </c>
@@ -4014,11 +4013,11 @@
         <f t="shared" ref="E6:E10" si="0">EOMONTH(C6,D6)</f>
         <v>44347</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F6" s="131">
         <f t="shared" ref="F6:F10" si="1">DATEDIF(C6,E6,"m")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="133">
+      <c r="G6" s="131">
         <f t="shared" ref="G6:G10" si="2">DATEDIF(C6,E6,"d")</f>
         <v>46</v>
       </c>
@@ -4057,11 +4056,11 @@
         <f t="shared" si="0"/>
         <v>44347</v>
       </c>
-      <c r="F7" s="133">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="133">
+      <c r="F7" s="131">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="131">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
@@ -4103,11 +4102,11 @@
         <f t="shared" si="0"/>
         <v>44316</v>
       </c>
-      <c r="F8" s="133">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="133">
+      <c r="F8" s="131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="131">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -4149,11 +4148,11 @@
         <f t="shared" si="0"/>
         <v>44316</v>
       </c>
-      <c r="F9" s="133">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="133">
+      <c r="F9" s="131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="131">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -4189,11 +4188,11 @@
         <f t="shared" si="0"/>
         <v>44286</v>
       </c>
-      <c r="F10" s="134" t="e">
+      <c r="F10" s="132" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="G10" s="134" t="e">
+      <c r="G10" s="132" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
@@ -4357,7 +4356,7 @@
       <c r="G22" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="138" t="s">
+      <c r="I22" s="136" t="s">
         <v>115</v>
       </c>
       <c r="Q22" s="75" t="str">
@@ -4382,7 +4381,7 @@
       <c r="G23" s="101">
         <v>0.3</v>
       </c>
-      <c r="I23" s="135">
+      <c r="I23" s="133">
         <f>CHOOSE($D$21,E23,F23,G23)</f>
         <v>0.3</v>
       </c>
@@ -4408,7 +4407,7 @@
       <c r="G24" s="105">
         <v>26000</v>
       </c>
-      <c r="I24" s="136">
+      <c r="I24" s="134">
         <f t="shared" ref="I24:I25" si="11">CHOOSE($D$21,E24,F24,G24)</f>
         <v>26000</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="G25" s="109">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I25" s="137">
+      <c r="I25" s="135">
         <f t="shared" si="11"/>
         <v>4.9000000000000002E-2</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>49975.12</v>
       </c>
       <c r="F35" s="115"/>
-      <c r="G35" s="139">
+      <c r="G35" s="137">
         <f ca="1">SUMPRODUCT($E$29:$E$34,F29:F34)</f>
         <v>47720</v>
       </c>
@@ -4577,8 +4576,8 @@
       <c r="F41" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
     </row>
     <row r="42" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="118"/>
@@ -4587,8 +4586,8 @@
         <f>IF(G38=1,D38,D39)</f>
         <v>500</v>
       </c>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="74" t="s">
@@ -5039,12 +5038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1CA262-16A9-4D3F-927A-882F65A20780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:BE32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5590,219 +5589,219 @@
         <v>32</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="140">
+      <c r="D15" s="138">
         <f>(MOD(D14,$C$9)=1)*1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="140">
+      <c r="E15" s="138">
         <f t="shared" ref="E15:BE15" si="2">(MOD(E14,$C$9)=1)*1</f>
         <v>0</v>
       </c>
-      <c r="F15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="140">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="140">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AP15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AS15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AV15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AW15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AX15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AY15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BB15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="140">
+      <c r="F15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
